--- a/result/t17/summary.xlsx
+++ b/result/t17/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hirotake_ito/Documents/project/saitama2017/rae/result/t17/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BD2DB2-4D71-CA44-8500-2D5C1B9B297D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB55730F-D645-8E4E-AD6B-DC2646DA0F73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="480" windowWidth="25000" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2369,25 +2369,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44643086-A94C-E34E-AD53-16FA8C60E090}">
   <dimension ref="C3:Q23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="3" max="3" width="10.7109375" style="9"/>
     <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="11" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="14.7109375" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="5" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="6.140625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.7109375" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="17.85546875" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="11.85546875" style="5" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="13" max="13" width="15.28515625" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="14.42578125" style="5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="14.7109375" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="5" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="10.7109375" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="6.140625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.7109375" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="17.85546875" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="11.85546875" style="5" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="13" max="13" width="15.28515625" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="14.42578125" style="5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="11.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2488,7 +2488,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="4:17" outlineLevel="1">
+    <row r="7" spans="4:17" hidden="1" outlineLevel="1">
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2520,7 +2520,7 @@
         <v>English(IRT)</v>
       </c>
     </row>
-    <row r="8" spans="4:17" outlineLevel="1">
+    <row r="8" spans="4:17" hidden="1" outlineLevel="1">
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2546,7 +2546,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="4:17" outlineLevel="1">
+    <row r="9" spans="4:17" hidden="1" outlineLevel="1">
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
@@ -2562,7 +2562,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="4:17">
+    <row r="10" spans="4:17" collapsed="1">
       <c r="D10" s="16" t="s">
         <v>243</v>
       </c>
@@ -2632,10 +2632,7 @@
         <v>0.062
 (0.020)</v>
       </c>
-      <c r="Q11" s="7">
-        <f>MATCH(O$8&amp;$K11,summary_tidy2!$AA:$AA,0)</f>
-        <v>89</v>
-      </c>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="4:17" ht="38">
       <c r="D12" s="11" t="str">
